--- a/medicine/Enfance/Philippe_Legendre-Kvater/Philippe_Legendre-Kvater.xlsx
+++ b/medicine/Enfance/Philippe_Legendre-Kvater/Philippe_Legendre-Kvater.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Legendre-Kvater est un peintre, graveur et illustrateur français né en 1947 à Étampes.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Legendre fait ses études au lycée Geoffroy-Saint-Hilaire à Étampes. Dès 1963, il participe à la création de Plume 91, revue littéraire éphémère, où il publie des dessins, poèmes et critiques de romans.
 En 1965, il réalise des dessins de presse pour la Gazette de Seine-et-Oise, et y croque, entre autres, un jeune peintre, Christian Binet, qui expose dans les locaux du journal peintures et dessins humoristiques. Lors de son service militaire dans la Marine nationale de 1966 à 1967, il devient le dessinateur de Pingouin, la revue de la base aéro-navale de Rochefort-sur-Mer.
@@ -553,14 +567,16 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le meneur de loups, texte de Claude Seignolle, Paris, Epigones, 1989.
 , Les Larmes de la Forêt, avec Patricia Philippe Legendre-Kvater, texte de Bernard Clavel, Hesse, 1997.
 Le Loup bavard, texte de Bernard Clavel, Hesse, 1998.
 J'apprends à dessiner, Paris, Fleurus, depuis 1992, série de plusieurs dizaines d'albums pour enfants, traduit aux États-Unis, en Italie, en Allemagne, en Islande, en Pologne, en Grèce, en Hongrie.
 Dessiner et Peindre, avec Patricia Legendre-Kvater, Paris, Fleurus (depuis 2001), série de plusieurs albums destinés aux amateurs adultes.
-Les Châteaux de la Loire, 48 cartes postales de 1987 à 2002[1].</t>
+Les Châteaux de la Loire, 48 cartes postales de 1987 à 2002.</t>
         </is>
       </c>
     </row>
